--- a/InputData/plcy-schd/FT/Final Time.xlsx
+++ b/InputData/plcy-schd/FT/Final Time.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-1.4.3-california-wipC\InputData\plcy-schd\FT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27960" windowHeight="13875" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27960" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="FT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -64,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +114,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -169,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -488,9 +480,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -504,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2030</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
